--- a/source/project_dashboard.xlsx
+++ b/source/project_dashboard.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://riotinto-my.sharepoint.com/personal/thomas_daniels_riotinto_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{1C1789A7-C4DC-4DA4-BAB6-887D85B419F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4874E55D-26B1-45E1-A823-66BAA6E550B0}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{1C1789A7-C4DC-4DA4-BAB6-887D85B419F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97AC8962-42B4-42C5-B2B7-BC0F9F3A6493}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="-19770" windowWidth="28800" windowHeight="14970" xr2:uid="{D8CC82C9-C9B8-4E9C-8798-7D5A467C9369}"/>
+    <workbookView xWindow="29040" yWindow="-19770" windowWidth="28800" windowHeight="14970" activeTab="1" xr2:uid="{D8CC82C9-C9B8-4E9C-8798-7D5A467C9369}"/>
   </bookViews>
   <sheets>
     <sheet name="Risks" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>BCV420 Drive Pulley Fabrication</t>
   </si>
@@ -50,12 +47,6 @@
     <t>On Track</t>
   </si>
   <si>
-    <t>TQ#</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Closed</t>
   </si>
   <si>
@@ -153,6 +144,9 @@
   </si>
   <si>
     <t>Project Engineer</t>
+  </si>
+  <si>
+    <t>tq_id</t>
   </si>
 </sst>
 </file>
@@ -160,7 +154,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -205,8 +199,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C406965F-0251-45F0-B7CF-E3CBB9150838}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -559,25 +553,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -585,19 +579,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="4">
         <v>46082</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="4">
         <v>46065</v>
@@ -632,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FD8878-F6C3-46A8-AC0E-14A21387E8E3}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -644,13 +638,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -658,10 +652,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -669,10 +663,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -680,10 +674,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -691,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -702,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -713,10 +707,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -724,10 +718,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -735,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -746,10 +740,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -757,10 +751,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -768,10 +762,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -779,10 +773,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -790,10 +784,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -801,10 +795,10 @@
         <v>13.1</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -812,10 +806,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -823,10 +817,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -834,10 +828,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -845,10 +839,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -856,10 +850,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -867,10 +861,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -878,10 +872,10 @@
         <v>19.100000000000001</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -889,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
